--- a/doc/ue_particle.xlsx
+++ b/doc/ue_particle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F777BE4D-CCFE-4DAA-AD88-9814C6BD10CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2427A8A5-FB52-42E4-BEF8-170448098D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>/** The occlusion bounds to use if OcclusionBoundsMethod is set to EPSOBM_CustomBounds */</t>
   </si>
@@ -125,6 +125,94 @@
   </si>
   <si>
     <t>PostGarbageCollectHandle = FCoreUObjectDelegates::GetPostGarbageCollect().AddRaw(this, &amp;FParticleSystemWorldManager::HandlePostGarbageCollect);</t>
+  </si>
+  <si>
+    <t>void FParticleSystemWorldManager::AddPSC(UParticleSystemComponent* PSC)</t>
+  </si>
+  <si>
+    <t>if (IsValid(PSC))  // Don't add PSC if it has been marked for deletion</t>
+  </si>
+  <si>
+    <t>int32 Handle = ManagedPSCs.Add(PSC);</t>
+  </si>
+  <si>
+    <t>PSCTickData.AddDefaulted();</t>
+  </si>
+  <si>
+    <t>FPSCTickData&amp; TickData = PSCTickData[Handle];</t>
+  </si>
+  <si>
+    <t>PSC-&gt;SetManagerHandle(Handle);</t>
+  </si>
+  <si>
+    <t>PSC-&gt;SetPendingManagerAdd(false);</t>
+  </si>
+  <si>
+    <t>ETickingGroup TickGroup = TG_DuringPhysics;</t>
+  </si>
+  <si>
+    <t>bool bCanTickConcurrent = PSC-&gt;CanTickInAnyThread();</t>
+  </si>
+  <si>
+    <t>UActorComponent* Prereq = PSC-&gt;GetAttachParent();</t>
+  </si>
+  <si>
+    <t>if (Prereq)</t>
+  </si>
+  <si>
+    <t>int32 PrereqEndTickGroup = (int32)Prereq-&gt;PrimaryComponentTick.EndTickGroup;</t>
+  </si>
+  <si>
+    <t>TickGroup = (ETickingGroup)FMath::Min(PrereqEndTickGroup + 1, (int32)TG_LastDemotable);</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>//Anything with no prereqs can be scheduled early.</t>
+  </si>
+  <si>
+    <t>//Should possibly also check for actor params/bone socket modules etc here?</t>
+  </si>
+  <si>
+    <t>TickGroup = TG_PrePhysics;</t>
+  </si>
+  <si>
+    <t>TickData.bPendingUnregister = false;//Ensure we're not set to unregister if we were.</t>
+  </si>
+  <si>
+    <t>TickData.bPendingReregister = false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>TickData.TickGroup = TickGroup;</t>
+  </si>
+  <si>
+    <t>TickData.bCanTickConcurrent = bCanTickConcurrent;</t>
+  </si>
+  <si>
+    <t>TickData.PrereqComponent = Prereq;</t>
+  </si>
+  <si>
+    <t>#if PSC_MAN_USE_STATIC_TICK_LISTS</t>
+  </si>
+  <si>
+    <t>FTickList&amp; TickList = TickData.bCanTickConcurrent ? TickLists_Concurrent[(int32)TickData.TickGroup] : TickLists_GT[(int32)TickData.TickGroup];</t>
+  </si>
+  <si>
+    <t>TickList.Add(Handle);</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogParticles, Verbose, TEXT("| Add PSC - PSC: %p | Man: %p | %d | %d |Num: %d |"), ManagedPSCs[Handle], this, Handle, TickList[TickData.TickListHandle], ManagedPSCs.Num());</t>
+  </si>
+  <si>
+    <t>!!!!注意这个地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -550,10 +638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545827E7-5987-4130-8043-01B207C59777}">
-  <dimension ref="C4:E28"/>
+  <dimension ref="C4:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -663,6 +751,187 @@
         <v>31</v>
       </c>
     </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>45</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ue_particle.xlsx
+++ b/doc/ue_particle.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2427A8A5-FB52-42E4-BEF8-170448098D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EF98C4-E967-49B4-951D-33EFEC899AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="优化" sheetId="1" r:id="rId1"/>
     <sheet name="优化2" sheetId="2" r:id="rId2"/>
+    <sheet name="优化3" sheetId="3" r:id="rId3"/>
+    <sheet name="SkeletonMesh附加粒子" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>/** The occlusion bounds to use if OcclusionBoundsMethod is set to EPSOBM_CustomBounds */</t>
   </si>
@@ -212,6 +214,50 @@
   </si>
   <si>
     <t>!!!!注意这个地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORCEINLINE void FParticleSystemWorldManager::FlushAsyncTicks(const FGraphEventRef&amp; TickGroupCompletionGraphEvent)</t>
+  </si>
+  <si>
+    <t>if (AsyncTickBatch.Num() &gt; 0)</t>
+  </si>
+  <si>
+    <t>LLM_SCOPE(ELLMTag::Particles);</t>
+  </si>
+  <si>
+    <t>FGraphEventRef AsyncTask = TGraphTask&lt;FParticleManagerAsyncTask&gt;::CreateTask(nullptr, ENamedThreads::GameThread).ConstructAndDispatchWhenReady(this, AsyncTickBatch);</t>
+  </si>
+  <si>
+    <t>#if PSC_MAN_TG_WAIT_FOR_ASYNC</t>
+  </si>
+  <si>
+    <t>TickGroupCompletionGraphEvent-&gt;DontCompleteUntil(AsyncTask);</t>
+  </si>
+  <si>
+    <t>//Pass to each PSC so they can wait on their respective task if needed.</t>
+  </si>
+  <si>
+    <t>for (int32 PSCHandle : AsyncTickBatch)</t>
+  </si>
+  <si>
+    <t>UParticleSystemComponent* PSC = GetManagedComponent(PSCHandle);</t>
+  </si>
+  <si>
+    <t>PSC-&gt;SetAsyncWork(AsyncTask);</t>
+  </si>
+  <si>
+    <t>AsyncTickBatch.Reset();</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>最好把当前这批粒子所属的Group打印出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部在PostPhysic阶段才执行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545827E7-5987-4130-8043-01B207C59777}">
   <dimension ref="C4:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
@@ -937,4 +983,138 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631C9939-014A-4B65-ACC2-4FA1987599B5}">
+  <dimension ref="B6:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7CEE20-08CB-4EEA-A138-28D982F9E8A3}">
+  <dimension ref="C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_particle.xlsx
+++ b/doc/ue_particle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EF98C4-E967-49B4-951D-33EFEC899AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B301A71-B0AB-4DE2-8A72-632CB335171C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="优化" sheetId="1" r:id="rId1"/>
     <sheet name="优化2" sheetId="2" r:id="rId2"/>
     <sheet name="优化3" sheetId="3" r:id="rId3"/>
-    <sheet name="SkeletonMesh附加粒子" sheetId="4" r:id="rId4"/>
+    <sheet name="优化4" sheetId="5" r:id="rId4"/>
+    <sheet name="SkeletonMesh附加粒子" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>/** The occlusion bounds to use if OcclusionBoundsMethod is set to EPSOBM_CustomBounds */</t>
   </si>
@@ -258,6 +259,47 @@
   </si>
   <si>
     <t>全部在PostPhysic阶段才执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (TickGroup != TG_LastDemotable)</t>
+  </si>
+  <si>
+    <t>int32 NextTickGroup = (int32)TickGroup + 1;</t>
+  </si>
+  <si>
+    <t>FTickList&amp; NextTickList = TickLists[NextTickGroup];</t>
+  </si>
+  <si>
+    <t>//Push any we couldn't tick yet into later tick lists.</t>
+  </si>
+  <si>
+    <t>check(ToDefer.Num() == 0 || TickGroup != TG_LastDemotable);//We have to tick everything in last demotable. Maybe do something better in future.</t>
+  </si>
+  <si>
+    <t>for (int32 i = 0; i &lt; ToDefer.Num(); ++i)</t>
+  </si>
+  <si>
+    <t>TickList.Remove(ToDefer[i]);</t>
+  </si>
+  <si>
+    <t>NextTickList.Add(ToDefer[i]);</t>
+  </si>
+  <si>
+    <t>FPSCTickData&amp; TickData = PSCTickData[ToDefer[i]];</t>
+  </si>
+  <si>
+    <t>TickData.TickGroup = (ETickingGroup)NextTickGroup;</t>
+  </si>
+  <si>
+    <t>void FParticleSystemWorldManager::ProcessTickList(float DeltaTime, ELevelTick TickType, ETickingGroup TickGroup, TArray&lt;FTickList&gt;&amp; TickLists, const FGraphEventRef&amp; TickGroupCompletionGraphEvent)</t>
+  </si>
+  <si>
+    <t>如果是SkeletonMesh挂在的粒子，这个就是其父Com完成Tick的事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果其父节点没完成，就需要继续移动到后面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1098,10 +1140,137 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7564F7-F7E5-4C56-9B34-7A1D444E6853}">
+  <dimension ref="B3:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7CEE20-08CB-4EEA-A138-28D982F9E8A3}">
   <dimension ref="C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_particle.xlsx
+++ b/doc/ue_particle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B301A71-B0AB-4DE2-8A72-632CB335171C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4823CF9A-0FA9-45A1-8B7C-0B3BD8A76A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="优化" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="优化3" sheetId="3" r:id="rId3"/>
     <sheet name="优化4" sheetId="5" r:id="rId4"/>
     <sheet name="SkeletonMesh附加粒子" sheetId="4" r:id="rId5"/>
+    <sheet name="FParticleMeshEmitterInstance" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1143,7 +1144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7564F7-F7E5-4C56-9B34-7A1D444E6853}">
   <dimension ref="B3:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1286,4 +1287,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045CCEC4-4471-4D5E-A8ED-00D4377EFEC6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_particle.xlsx
+++ b/doc/ue_particle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4823CF9A-0FA9-45A1-8B7C-0B3BD8A76A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1501DDFA-B3BC-4CFB-AD0E-FBB1D3215BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="优化" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="优化4" sheetId="5" r:id="rId4"/>
     <sheet name="SkeletonMesh附加粒子" sheetId="4" r:id="rId5"/>
     <sheet name="FParticleMeshEmitterInstance" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="pool" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="142">
   <si>
     <t>/** The occlusion bounds to use if OcclusionBoundsMethod is set to EPSOBM_CustomBounds */</t>
   </si>
@@ -69,9 +71,6 @@
   </si>
   <si>
     <t>UPROPERTY(EditAnywhere, Category = Bounds)</t>
-  </si>
-  <si>
-    <t>uint8 bUseFixedRelativeBoundingBox : 1;</t>
   </si>
   <si>
     <t>FParticleSystemWorldManager::FParticleSystemWorldManager(UWorld* InWorld)</t>
@@ -301,6 +300,173 @@
   </si>
   <si>
     <t>如果其父节点没完成，就需要继续移动到后面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8 bUseFixedRelativeBoundingBox : 1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅仅是计算剔除的BOX，不影响每个粒子的位置旋转等计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注意用的是的EndTickGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template&lt;bool bAsync&gt;</t>
+  </si>
+  <si>
+    <t>FTickList&amp; TickList = TickLists[(int32)TickGroup];</t>
+  </si>
+  <si>
+    <t>TArray&lt;int32, TInlineAllocator&lt;32&gt;&gt; ToDefer;</t>
+  </si>
+  <si>
+    <t>for (int32 Handle : TickList.Get())</t>
+  </si>
+  <si>
+    <t>UParticleSystemComponent* PSC = ManagedPSCs[Handle];</t>
+  </si>
+  <si>
+    <t>checkSlow(PSC);</t>
+  </si>
+  <si>
+    <t>if (!TickData.bPendingUnregister)</t>
+  </si>
+  <si>
+    <t>bool bDoTick = true;</t>
+  </si>
+  <si>
+    <t>//TODO: CHECK for location in our array. Since we're not threading anyway we can just rely on location in the buffer. Can just remove at swap in the ToTickArray?</t>
+  </si>
+  <si>
+    <t>if (TickData.PrereqComponent &amp;&amp; TickData.PrereqComponent-&gt;PrimaryComponentTick.IsCompletionHandleValid())</t>
+  </si>
+  <si>
+    <t>bDoTick = TickGroup == TG_LastDemotable || TickData.PrereqComponent-&gt;PrimaryComponentTick.GetCompletionHandle()-&gt;IsComplete();</t>
+  </si>
+  <si>
+    <t>if (bDoTick)</t>
+  </si>
+  <si>
+    <t>//UE_LOG(LogParticles, Warning, TEXT("| Ticking %d | PSC: %p "), PSCIndex, PSC);</t>
+  </si>
+  <si>
+    <t>/////////////////////////////////////////////////////////////////////////////////////////////////////////</t>
+  </si>
+  <si>
+    <t>// FORT-319316 - Tracking down why we sometimes have a PSC with no world in the manager?</t>
+  </si>
+  <si>
+    <t>if (!PSC-&gt;GetWorld())</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogParticles, Warning, TEXT("PSC(%s) has no world but is inside PSC Manager. Template(%s) PendingKill(%d) IsTickManaged(%d) ManagerHandle(%d) PendingAdd(%d) PendingRemove(%d)"), *GetFullNameSafe(PSC), *GetFullNameSafe(PSC-&gt;Template), PSC-&gt;IsPendingKill(), PSC-&gt;IsTickManaged(), PSC-&gt;GetManagerHandle(), PSC-&gt;IsPendingManagerAdd(), PSC-&gt;IsPendingManagerRemove());</t>
+  </si>
+  <si>
+    <t>PSC-&gt;SetPendingManagerRemove(true);</t>
+  </si>
+  <si>
+    <t>TickData.bPendingUnregister = true;</t>
+  </si>
+  <si>
+    <t>continue;</t>
+  </si>
+  <si>
+    <t>if (PSC-&gt;CanSkipTickDueToVisibility())</t>
+  </si>
+  <si>
+    <t>AActor* PSCOwner = PSC-&gt;GetOwner();</t>
+  </si>
+  <si>
+    <t>const float TimeDilation = (PSCOwner ? PSCOwner-&gt;CustomTimeDilation : 1.f);</t>
+  </si>
+  <si>
+    <t>//TODO: Replace call to TickComponent with new call that allows us to pull duplicated work up to share across all ticks.</t>
+  </si>
+  <si>
+    <t>if (bAsync)</t>
+  </si>
+  <si>
+    <t>PSC-&gt;TickComponent(DeltaTime * TimeDilation, TickType, nullptr);</t>
+  </si>
+  <si>
+    <t>PSC-&gt;MarshalParamsForAsyncTick();</t>
+  </si>
+  <si>
+    <t>QueueAsyncTick(Handle, TickGroupCompletionGraphEvent);</t>
+  </si>
+  <si>
+    <t>PSC-&gt;ComputeTickComponent_Concurrent();</t>
+  </si>
+  <si>
+    <t>PSC-&gt;FinalizeTickComponent();</t>
+  </si>
+  <si>
+    <t>ToDefer.Add(Handle);</t>
+  </si>
+  <si>
+    <t>ToDefer.Reset();</t>
+  </si>
+  <si>
+    <t>FlushAsyncTicks(TickGroupCompletionGraphEvent);</t>
+  </si>
+  <si>
+    <t>注意这个里面的处理，粒子的父阶段必须计算完成才能在这个阶段处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static float GParticleSystemPoolKillUnusedTime = 180.0f;</t>
+  </si>
+  <si>
+    <t>static FAutoConsoleVariableRef ParticleSystemPoolKillUnusedTime(</t>
+  </si>
+  <si>
+    <t>TEXT("FX.ParticleSystemPool.KillUnusedTime"),</t>
+  </si>
+  <si>
+    <t>GParticleSystemPoolKillUnusedTime,</t>
+  </si>
+  <si>
+    <t>TEXT("How long a pooled particle component needs to be unused for before it is destroyed.")</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>static int32 GbEnableParticleSystemPooling = 1;</t>
+  </si>
+  <si>
+    <t>static FAutoConsoleVariableRef bEnableParticleSystemPooling(</t>
+  </si>
+  <si>
+    <t>TEXT("FX.ParticleSystemPool.Enable"),</t>
+  </si>
+  <si>
+    <t>GbEnableParticleSystemPooling,</t>
+  </si>
+  <si>
+    <t>TEXT("How many Particle System Components to preallocate when creating new ones for the pool.")</t>
+  </si>
+  <si>
+    <t>static float GParticleSystemPoolingCleanTime = 30.0f;</t>
+  </si>
+  <si>
+    <t>static FAutoConsoleVariableRef ParticleSystemPoolingCleanTime(</t>
+  </si>
+  <si>
+    <t>TEXT("FX.ParticleSystemPool.CleanTime"),</t>
+  </si>
+  <si>
+    <t>GParticleSystemPoolingCleanTime,</t>
+  </si>
+  <si>
+    <t>TEXT("How often should the pool be cleaned (in seconds).")</t>
+  </si>
+  <si>
+    <t>和内存有关系，如果为了排除内存问题，可以临时关闭POOL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,35 +802,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:D24"/>
+  <dimension ref="B2:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -672,7 +843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -680,7 +851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -688,17 +859,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>10</v>
       </c>
@@ -715,7 +886,7 @@
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -729,296 +900,299 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545827E7-5987-4130-8043-01B207C59777}">
   <dimension ref="C4:P72"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="4:16" x14ac:dyDescent="0.2">
       <c r="F49" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="4:16" x14ac:dyDescent="0.2">
       <c r="F54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.2">
       <c r="F55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="4:16" x14ac:dyDescent="0.2">
       <c r="F56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" t="s">
         <v>52</v>
-      </c>
-      <c r="E61" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1040,97 +1214,97 @@
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1152,112 +1326,112 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1279,7 +1453,7 @@
   <sheetData>
     <row r="9" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1293,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045CCEC4-4471-4D5E-A8ED-00D4377EFEC6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -1303,4 +1477,558 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BB7FB3-52D2-45C4-B5C3-93997CBBA10E}">
+  <dimension ref="B3:G98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3E5E0E-B2BA-49DA-A0BF-76195B0B4F26}">
+  <dimension ref="B4:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_particle.xlsx
+++ b/doc/ue_particle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1501DDFA-B3BC-4CFB-AD0E-FBB1D3215BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF1942E-C589-48CF-98E3-4F6AA5CDCE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="优化" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="FParticleMeshEmitterInstance" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
     <sheet name="pool" sheetId="8" r:id="rId8"/>
+    <sheet name="lod" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="148">
   <si>
     <t>/** The occlusion bounds to use if OcclusionBoundsMethod is set to EPSOBM_CustomBounds */</t>
   </si>
@@ -468,6 +469,24 @@
   <si>
     <t>和内存有关系，如果为了排除内存问题，可以临时关闭POOL</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static int32 GFXAllowParticleMeshLODs = 0;</t>
+  </si>
+  <si>
+    <t>static FAutoConsoleVariableRef CVarFXAllowParticleMeshLODs(</t>
+  </si>
+  <si>
+    <t>TEXT("fx.FXAllowParticleMeshLODs"),</t>
+  </si>
+  <si>
+    <t>GFXAllowParticleMeshLODs,</t>
+  </si>
+  <si>
+    <t>TEXT("If we allow particle meshes to use LODs or not"),</t>
+  </si>
+  <si>
+    <t>ECVF_Default</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +1944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3E5E0E-B2BA-49DA-A0BF-76195B0B4F26}">
   <dimension ref="B4:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -2031,4 +2050,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E471844F-D492-4DC2-9622-53D4EDF830DE}">
+  <dimension ref="B4:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_particle.xlsx
+++ b/doc/ue_particle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF1942E-C589-48CF-98E3-4F6AA5CDCE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6912E3B7-2C6B-4708-B4C8-D7602AEE01D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="优化" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="149">
   <si>
     <t>/** The occlusion bounds to use if OcclusionBoundsMethod is set to EPSOBM_CustomBounds */</t>
   </si>
@@ -487,6 +487,10 @@
   </si>
   <si>
     <t>ECVF_Default</t>
+  </si>
+  <si>
+    <t>！！！这部分如果对临时的表现要求不高的话，可以动态屏蔽掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1335,70 +1339,73 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7564F7-F7E5-4C56-9B34-7A1D444E6853}">
-  <dimension ref="B3:F26"/>
+  <dimension ref="B3:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="T15" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>80</v>
       </c>
@@ -2056,7 +2063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E471844F-D492-4DC2-9622-53D4EDF830DE}">
   <dimension ref="B4:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_particle.xlsx
+++ b/doc/ue_particle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6912E3B7-2C6B-4708-B4C8-D7602AEE01D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A9BD1A-683F-45DF-A0AC-0A9716A6D4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="优化" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
     <sheet name="pool" sheetId="8" r:id="rId8"/>
     <sheet name="lod" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="166">
   <si>
     <t>/** The occlusion bounds to use if OcclusionBoundsMethod is set to EPSOBM_CustomBounds */</t>
   </si>
@@ -490,6 +491,58 @@
   </si>
   <si>
     <t>！！！这部分如果对临时的表现要求不高的话，可以动态屏蔽掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r.DetailMode</t>
+  </si>
+  <si>
+    <t>check(GlobalDetailMode &lt; NUM_DETAILMODE_FLAGS);</t>
+  </si>
+  <si>
+    <t>const bool bDetailModeAllowsRendering = DetailMode &lt;= GlobalDetailMode &amp;&amp; (Emitter-&gt;DetailModeBitmask &amp; (1 &lt;&lt; GlobalDetailMode));</t>
+  </si>
+  <si>
+    <t>int32 GParticleLODBias = 0;</t>
+  </si>
+  <si>
+    <t>FAutoConsoleVariableRef CVarParticleLODBias(</t>
+  </si>
+  <si>
+    <t>TEXT("r.ParticleLODBias"),</t>
+  </si>
+  <si>
+    <t>GParticleLODBias,</t>
+  </si>
+  <si>
+    <t>TEXT("LOD bias for particle systems, default is 0"),</t>
+  </si>
+  <si>
+    <t>ECVF_Scalability</t>
+  </si>
+  <si>
+    <t>void UParticleSystemComponent::SetLODLevel(int32 InLODLevel)</t>
+  </si>
+  <si>
+    <t>ForceAsyncWorkCompletion(STALL);</t>
+  </si>
+  <si>
+    <t>if (Template == NULL)</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>if (Template-&gt;LODDistances.Num() == 0)</t>
+  </si>
+  <si>
+    <t>int32 NewLODLevel = FMath::Clamp(InLODLevel + GParticleLODBias, 0, Template-&gt;GetLODLevelCount() - 1);</t>
+  </si>
+  <si>
+    <t>if (LODLevel != NewLODLevel)</t>
+  </si>
+  <si>
+    <t>！！！加上了偏移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -919,6 +972,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4822A4E-8675-448A-934D-75F1F5EDC781}">
+  <dimension ref="A4:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545827E7-5987-4130-8043-01B207C59777}">
   <dimension ref="C4:P72"/>
@@ -1341,7 +1539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7564F7-F7E5-4C56-9B34-7A1D444E6853}">
   <dimension ref="B3:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -2064,7 +2262,7 @@
   <dimension ref="B4:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
